--- a/natmiOut/OldD4/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Nodal</t>
   </si>
   <si>
     <t>Acvr2a</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.758718977613569</v>
+        <v>0.8014976666666667</v>
       </c>
       <c r="H2">
-        <v>0.758718977613569</v>
+        <v>2.404493</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6408639441485913</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6645820279581311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.838240410581</v>
+        <v>13.10301133333333</v>
       </c>
       <c r="N2">
-        <v>12.838240410581</v>
+        <v>39.309034</v>
       </c>
       <c r="O2">
-        <v>0.2087316208052022</v>
+        <v>0.2036753411238414</v>
       </c>
       <c r="P2">
-        <v>0.2087316208052022</v>
+        <v>0.2126567538160978</v>
       </c>
       <c r="Q2">
-        <v>9.740616638673222</v>
+        <v>10.50203300997356</v>
       </c>
       <c r="R2">
-        <v>9.740616638673222</v>
+        <v>94.51829708976202</v>
       </c>
       <c r="S2">
-        <v>0.2087316208052022</v>
+        <v>0.1305281824384348</v>
       </c>
       <c r="T2">
-        <v>0.2087316208052022</v>
+        <v>0.1413278567100953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.758718977613569</v>
+        <v>0.8014976666666667</v>
       </c>
       <c r="H3">
-        <v>0.758718977613569</v>
+        <v>2.404493</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6408639441485913</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6645820279581311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.9753021752732</v>
+        <v>29.54200233333333</v>
       </c>
       <c r="N3">
-        <v>27.9753021752732</v>
+        <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.454838823609147</v>
+        <v>0.4592056932299318</v>
       </c>
       <c r="P3">
-        <v>0.454838823609147</v>
+        <v>0.479455154057023</v>
       </c>
       <c r="Q3">
-        <v>21.22539266485393</v>
+        <v>23.67784593882789</v>
       </c>
       <c r="R3">
-        <v>21.22539266485393</v>
+        <v>213.100613449451</v>
       </c>
       <c r="S3">
-        <v>0.454838823609147</v>
+        <v>0.2942883717388221</v>
       </c>
       <c r="T3">
-        <v>0.454838823609147</v>
+        <v>0.3186372785981946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.758718977613569</v>
+        <v>0.8014976666666667</v>
       </c>
       <c r="H4">
-        <v>0.758718977613569</v>
+        <v>2.404493</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6408639441485913</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6645820279581311</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.973433680901</v>
+        <v>5.915846333333334</v>
       </c>
       <c r="N4">
-        <v>4.973433680901</v>
+        <v>17.747539</v>
       </c>
       <c r="O4">
-        <v>0.08086099340576754</v>
+        <v>0.0919568784095198</v>
       </c>
       <c r="P4">
-        <v>0.08086099340576754</v>
+        <v>0.09601187431786275</v>
       </c>
       <c r="Q4">
-        <v>3.773438517602095</v>
+        <v>4.741537032525223</v>
       </c>
       <c r="R4">
-        <v>3.773438517602095</v>
+        <v>42.673833292727</v>
       </c>
       <c r="S4">
-        <v>0.08086099340576754</v>
+        <v>0.05893184778911729</v>
       </c>
       <c r="T4">
-        <v>0.08086099340576754</v>
+        <v>0.06380776614222644</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.758718977613569</v>
+        <v>0.8014976666666667</v>
       </c>
       <c r="H5">
-        <v>0.758718977613569</v>
+        <v>2.404493</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6408639441485913</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6645820279581311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.59860182595396</v>
+        <v>7.620811666666666</v>
       </c>
       <c r="N5">
-        <v>7.59860182595396</v>
+        <v>22.862435</v>
       </c>
       <c r="O5">
-        <v>0.1235425123895901</v>
+        <v>0.1184591370916581</v>
       </c>
       <c r="P5">
-        <v>0.1235425123895901</v>
+        <v>0.123682795446755</v>
       </c>
       <c r="Q5">
-        <v>5.765203408680387</v>
+        <v>6.108062768939444</v>
       </c>
       <c r="R5">
-        <v>5.765203408680387</v>
+        <v>54.97256492045499</v>
       </c>
       <c r="S5">
-        <v>0.1235425123895901</v>
+        <v>0.07591618981699873</v>
       </c>
       <c r="T5">
-        <v>0.1235425123895901</v>
+        <v>0.08219736302153513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.8014976666666667</v>
+      </c>
+      <c r="H6">
+        <v>2.404493</v>
+      </c>
+      <c r="I6">
+        <v>0.6408639441485913</v>
+      </c>
+      <c r="J6">
+        <v>0.6645820279581311</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>8.1511595</v>
+      </c>
+      <c r="N6">
+        <v>16.302319</v>
+      </c>
+      <c r="O6">
+        <v>0.1267029501450486</v>
+      </c>
+      <c r="P6">
+        <v>0.08819342236226138</v>
+      </c>
+      <c r="Q6">
+        <v>6.533135319877833</v>
+      </c>
+      <c r="R6">
+        <v>39.198811919267</v>
+      </c>
+      <c r="S6">
+        <v>0.08119935236521821</v>
+      </c>
+      <c r="T6">
+        <v>0.05861176348607966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3152516666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.9457549999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.2520698872894415</v>
+      </c>
+      <c r="J7">
+        <v>0.2613988794525675</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>13.10301133333333</v>
+      </c>
+      <c r="N7">
+        <v>39.309034</v>
+      </c>
+      <c r="O7">
+        <v>0.2036753411238414</v>
+      </c>
+      <c r="P7">
+        <v>0.2126567538160978</v>
+      </c>
+      <c r="Q7">
+        <v>4.130746161185556</v>
+      </c>
+      <c r="R7">
+        <v>37.17671545067</v>
+      </c>
+      <c r="S7">
+        <v>0.05134042028072525</v>
+      </c>
+      <c r="T7">
+        <v>0.05558823715554845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3152516666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.9457549999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.2520698872894415</v>
+      </c>
+      <c r="J8">
+        <v>0.2613988794525675</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>29.54200233333333</v>
+      </c>
+      <c r="N8">
+        <v>88.626007</v>
+      </c>
+      <c r="O8">
+        <v>0.4592056932299318</v>
+      </c>
+      <c r="P8">
+        <v>0.479455154057023</v>
+      </c>
+      <c r="Q8">
+        <v>9.313165472253889</v>
+      </c>
+      <c r="R8">
+        <v>83.818489250285</v>
+      </c>
+      <c r="S8">
+        <v>0.1157519273351387</v>
+      </c>
+      <c r="T8">
+        <v>0.1253290400182639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3152516666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.9457549999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.2520698872894415</v>
+      </c>
+      <c r="J9">
+        <v>0.2613988794525675</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.915846333333334</v>
+      </c>
+      <c r="N9">
+        <v>17.747539</v>
+      </c>
+      <c r="O9">
+        <v>0.0919568784095198</v>
+      </c>
+      <c r="P9">
+        <v>0.09601187431786275</v>
+      </c>
+      <c r="Q9">
+        <v>1.864980416327222</v>
+      </c>
+      <c r="R9">
+        <v>16.784823746945</v>
+      </c>
+      <c r="S9">
+        <v>0.02317955997617653</v>
+      </c>
+      <c r="T9">
+        <v>0.02509739636083006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3152516666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.9457549999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.2520698872894415</v>
+      </c>
+      <c r="J10">
+        <v>0.2613988794525675</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.620811666666666</v>
+      </c>
+      <c r="N10">
+        <v>22.862435</v>
+      </c>
+      <c r="O10">
+        <v>0.1184591370916581</v>
+      </c>
+      <c r="P10">
+        <v>0.123682795446755</v>
+      </c>
+      <c r="Q10">
+        <v>2.402473579269444</v>
+      </c>
+      <c r="R10">
+        <v>21.622262213425</v>
+      </c>
+      <c r="S10">
+        <v>0.02985998133509876</v>
+      </c>
+      <c r="T10">
+        <v>0.03233054413734286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3152516666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.9457549999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.2520698872894415</v>
+      </c>
+      <c r="J11">
+        <v>0.2613988794525675</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.1511595</v>
+      </c>
+      <c r="N11">
+        <v>16.302319</v>
+      </c>
+      <c r="O11">
+        <v>0.1267029501450486</v>
+      </c>
+      <c r="P11">
+        <v>0.08819342236226138</v>
+      </c>
+      <c r="Q11">
+        <v>2.569666617640833</v>
+      </c>
+      <c r="R11">
+        <v>15.417999705845</v>
+      </c>
+      <c r="S11">
+        <v>0.03193799836230213</v>
+      </c>
+      <c r="T11">
+        <v>0.02305366178058213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.1339025</v>
+      </c>
+      <c r="H12">
+        <v>0.267805</v>
+      </c>
+      <c r="I12">
+        <v>0.1070661685619672</v>
+      </c>
+      <c r="J12">
+        <v>0.07401909258930149</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.10301133333333</v>
+      </c>
+      <c r="N12">
+        <v>39.309034</v>
+      </c>
+      <c r="O12">
+        <v>0.2036753411238414</v>
+      </c>
+      <c r="P12">
+        <v>0.2126567538160978</v>
+      </c>
+      <c r="Q12">
+        <v>1.754525975061667</v>
+      </c>
+      <c r="R12">
+        <v>10.52715585037</v>
+      </c>
+      <c r="S12">
+        <v>0.02180673840468138</v>
+      </c>
+      <c r="T12">
+        <v>0.01574065995045404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.1339025</v>
+      </c>
+      <c r="H13">
+        <v>0.267805</v>
+      </c>
+      <c r="I13">
+        <v>0.1070661685619672</v>
+      </c>
+      <c r="J13">
+        <v>0.07401909258930149</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>29.54200233333333</v>
+      </c>
+      <c r="N13">
+        <v>88.626007</v>
+      </c>
+      <c r="O13">
+        <v>0.4592056932299318</v>
+      </c>
+      <c r="P13">
+        <v>0.479455154057023</v>
+      </c>
+      <c r="Q13">
+        <v>3.955747967439167</v>
+      </c>
+      <c r="R13">
+        <v>23.734487804635</v>
+      </c>
+      <c r="S13">
+        <v>0.04916539415597089</v>
+      </c>
+      <c r="T13">
+        <v>0.0354888354405646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.1339025</v>
+      </c>
+      <c r="H14">
+        <v>0.267805</v>
+      </c>
+      <c r="I14">
+        <v>0.1070661685619672</v>
+      </c>
+      <c r="J14">
+        <v>0.07401909258930149</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.915846333333334</v>
+      </c>
+      <c r="N14">
+        <v>17.747539</v>
+      </c>
+      <c r="O14">
+        <v>0.0919568784095198</v>
+      </c>
+      <c r="P14">
+        <v>0.09601187431786275</v>
+      </c>
+      <c r="Q14">
+        <v>0.7921466136491667</v>
+      </c>
+      <c r="R14">
+        <v>4.752879681895</v>
+      </c>
+      <c r="S14">
+        <v>0.009845470644225971</v>
+      </c>
+      <c r="T14">
+        <v>0.007106711814806261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.758718977613569</v>
-      </c>
-      <c r="H6">
-        <v>0.758718977613569</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>8.12039000669167</v>
-      </c>
-      <c r="N6">
-        <v>8.12039000669167</v>
-      </c>
-      <c r="O6">
-        <v>0.132026049790293</v>
-      </c>
-      <c r="P6">
-        <v>0.132026049790293</v>
-      </c>
-      <c r="Q6">
-        <v>6.161094003700547</v>
-      </c>
-      <c r="R6">
-        <v>6.161094003700547</v>
-      </c>
-      <c r="S6">
-        <v>0.132026049790293</v>
-      </c>
-      <c r="T6">
-        <v>0.132026049790293</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.1339025</v>
+      </c>
+      <c r="H15">
+        <v>0.267805</v>
+      </c>
+      <c r="I15">
+        <v>0.1070661685619672</v>
+      </c>
+      <c r="J15">
+        <v>0.07401909258930149</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.620811666666666</v>
+      </c>
+      <c r="N15">
+        <v>22.862435</v>
+      </c>
+      <c r="O15">
+        <v>0.1184591370916581</v>
+      </c>
+      <c r="P15">
+        <v>0.123682795446755</v>
+      </c>
+      <c r="Q15">
+        <v>1.020445734195833</v>
+      </c>
+      <c r="R15">
+        <v>6.122674405175</v>
+      </c>
+      <c r="S15">
+        <v>0.01268296593956066</v>
+      </c>
+      <c r="T15">
+        <v>0.009154888287876993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.1339025</v>
+      </c>
+      <c r="H16">
+        <v>0.267805</v>
+      </c>
+      <c r="I16">
+        <v>0.1070661685619672</v>
+      </c>
+      <c r="J16">
+        <v>0.07401909258930149</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.1511595</v>
+      </c>
+      <c r="N16">
+        <v>16.302319</v>
+      </c>
+      <c r="O16">
+        <v>0.1267029501450486</v>
+      </c>
+      <c r="P16">
+        <v>0.08819342236226138</v>
+      </c>
+      <c r="Q16">
+        <v>1.09146063494875</v>
+      </c>
+      <c r="R16">
+        <v>4.365842539795</v>
+      </c>
+      <c r="S16">
+        <v>0.01356559941752831</v>
+      </c>
+      <c r="T16">
+        <v>0.006527997095599597</v>
       </c>
     </row>
   </sheetData>
